--- a/Code/Results/Cases/Case_5_148/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_148/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.241400140809276</v>
+        <v>0.9329097690169021</v>
       </c>
       <c r="C2">
-        <v>0.1706343076732395</v>
+        <v>0.05228061303763809</v>
       </c>
       <c r="D2">
-        <v>0.06751359442655769</v>
+        <v>0.1156676683935771</v>
       </c>
       <c r="E2">
-        <v>0.02362038044005921</v>
+        <v>0.06005454773048058</v>
       </c>
       <c r="F2">
-        <v>1.451896072162825</v>
+        <v>2.075524740652568</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.9917696804985567</v>
+        <v>1.68842009516662</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.281387157762936</v>
+        <v>0.7479508682361029</v>
       </c>
       <c r="L2">
-        <v>0.1696397758516071</v>
+        <v>0.2249561431626361</v>
       </c>
       <c r="M2">
-        <v>0.2602798259418613</v>
+        <v>0.2387367315177329</v>
       </c>
       <c r="N2">
-        <v>1.658880940108816</v>
+        <v>3.034829201778066</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.086402342336243</v>
+        <v>0.8966713425653268</v>
       </c>
       <c r="C3">
-        <v>0.147538707466623</v>
+        <v>0.04550233385545255</v>
       </c>
       <c r="D3">
-        <v>0.06866030321717709</v>
+        <v>0.1157624700085336</v>
       </c>
       <c r="E3">
-        <v>0.02333836911220999</v>
+        <v>0.06020361776108896</v>
       </c>
       <c r="F3">
-        <v>1.371201180165542</v>
+        <v>2.064219328938819</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.9627165563099211</v>
+        <v>1.688000342013574</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.114505258099911</v>
+        <v>0.7065628561795734</v>
       </c>
       <c r="L3">
-        <v>0.1546101678689098</v>
+        <v>0.2222859337751899</v>
       </c>
       <c r="M3">
-        <v>0.2300301833568952</v>
+        <v>0.2320865127833471</v>
       </c>
       <c r="N3">
-        <v>1.691845468776663</v>
+        <v>3.050060697382932</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.992438730971088</v>
+        <v>0.874947644033341</v>
       </c>
       <c r="C4">
-        <v>0.1334993851320689</v>
+        <v>0.04133518365776467</v>
       </c>
       <c r="D4">
-        <v>0.06936705188922865</v>
+        <v>0.1158200975665817</v>
       </c>
       <c r="E4">
-        <v>0.02318443594358577</v>
+        <v>0.06030932923153909</v>
       </c>
       <c r="F4">
-        <v>1.323887958769518</v>
+        <v>2.058230358761719</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.946304582213088</v>
+        <v>1.688397463660699</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.013264877800964</v>
+        <v>0.6815773114576871</v>
       </c>
       <c r="L4">
-        <v>0.1455968728905077</v>
+        <v>0.2207555003845627</v>
       </c>
       <c r="M4">
-        <v>0.2117393619757024</v>
+        <v>0.22813448093018</v>
       </c>
       <c r="N4">
-        <v>1.713815788181812</v>
+        <v>3.060176053919939</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9544191041822785</v>
+        <v>0.8662277516443737</v>
       </c>
       <c r="C5">
-        <v>0.1278078472481496</v>
+        <v>0.03963563088288424</v>
       </c>
       <c r="D5">
-        <v>0.06965587000580165</v>
+        <v>0.1158434391272163</v>
       </c>
       <c r="E5">
-        <v>0.02312640864080606</v>
+        <v>0.06035598249805219</v>
       </c>
       <c r="F5">
-        <v>1.305133697445299</v>
+        <v>2.056029287262106</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.9399563745445647</v>
+        <v>1.68872397326848</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9722808266233471</v>
+        <v>0.6715028810065462</v>
       </c>
       <c r="L5">
-        <v>0.141974044287835</v>
+        <v>0.2201592984918292</v>
       </c>
       <c r="M5">
-        <v>0.2043501582551954</v>
+        <v>0.2265570411517075</v>
       </c>
       <c r="N5">
-        <v>1.723189210367593</v>
+        <v>3.064489997482482</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9481214661093702</v>
+        <v>0.8647878407414851</v>
       </c>
       <c r="C6">
-        <v>0.1268643921972199</v>
+        <v>0.03935333415734021</v>
       </c>
       <c r="D6">
-        <v>0.0697038812006987</v>
+        <v>0.1158473065081118</v>
       </c>
       <c r="E6">
-        <v>0.02311705351657878</v>
+        <v>0.06036394541818435</v>
       </c>
       <c r="F6">
-        <v>1.302050356469294</v>
+        <v>2.055678263633098</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.9389222504458559</v>
+        <v>1.688788136566615</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9654908877561468</v>
+        <v>0.6698365165326834</v>
       </c>
       <c r="L6">
-        <v>0.1413753967869127</v>
+        <v>0.2200619592099997</v>
       </c>
       <c r="M6">
-        <v>0.2031268941083226</v>
+        <v>0.226297105726907</v>
       </c>
       <c r="N6">
-        <v>1.724770636038826</v>
+        <v>3.065217910657928</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9919249271643764</v>
+        <v>0.874829506970201</v>
       </c>
       <c r="C7">
-        <v>0.1334225148267905</v>
+        <v>0.04131226869280624</v>
       </c>
       <c r="D7">
-        <v>0.06937094351643047</v>
+        <v>0.1158204129297662</v>
       </c>
       <c r="E7">
-        <v>0.02318363449856076</v>
+        <v>0.06030994392691191</v>
       </c>
       <c r="F7">
-        <v>1.323632946689244</v>
+        <v>2.058199704766224</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.9462176164210874</v>
+        <v>1.68840120029315</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.012711096286182</v>
+        <v>0.6814410093192009</v>
       </c>
       <c r="L7">
-        <v>0.1455478160207022</v>
+        <v>0.2207473485614742</v>
       </c>
       <c r="M7">
-        <v>0.2116394560505555</v>
+        <v>0.2281130731641881</v>
       </c>
       <c r="N7">
-        <v>1.713940518200246</v>
+        <v>3.060233456538818</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.187686819497031</v>
+        <v>0.9203055264001421</v>
       </c>
       <c r="C8">
-        <v>0.1626378578212666</v>
+        <v>0.04994450224798186</v>
       </c>
       <c r="D8">
-        <v>0.06790851319969526</v>
+        <v>0.115700478945536</v>
       </c>
       <c r="E8">
-        <v>0.02351907103486361</v>
+        <v>0.06010300888559517</v>
       </c>
       <c r="F8">
-        <v>1.423586812114934</v>
+        <v>2.071428879898477</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.9814442440438143</v>
+        <v>1.688139452461634</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.223569440257961</v>
+        <v>0.7335916972909899</v>
       </c>
       <c r="L8">
-        <v>0.1644105375856668</v>
+        <v>0.2240128316294587</v>
       </c>
       <c r="M8">
-        <v>0.2497869891208744</v>
+        <v>0.23641652452228</v>
       </c>
       <c r="N8">
-        <v>1.669878930160337</v>
+        <v>3.039922598852954</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.582701553600259</v>
+        <v>1.013660706942687</v>
       </c>
       <c r="C9">
-        <v>0.2213444268206928</v>
+        <v>0.06683506623973301</v>
       </c>
       <c r="D9">
-        <v>0.06505520949351151</v>
+        <v>0.1154604974818447</v>
       </c>
       <c r="E9">
-        <v>0.02433583559944985</v>
+        <v>0.05980936469561016</v>
       </c>
       <c r="F9">
-        <v>1.639044986016771</v>
+        <v>2.104936121109773</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.062766504146119</v>
+        <v>1.692823406491279</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.648550737671655</v>
+        <v>0.8392504305352304</v>
       </c>
       <c r="L9">
-        <v>0.2032952622926132</v>
+        <v>0.231281207882617</v>
       </c>
       <c r="M9">
-        <v>0.3271591468231279</v>
+        <v>0.2537399399285576</v>
       </c>
       <c r="N9">
-        <v>1.59791130015131</v>
+        <v>3.006150687704647</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.882068796139606</v>
+        <v>1.084799269778784</v>
       </c>
       <c r="C10">
-        <v>0.265784835332127</v>
+        <v>0.07922924020277833</v>
       </c>
       <c r="D10">
-        <v>0.06295822216086222</v>
+        <v>0.115281007993433</v>
       </c>
       <c r="E10">
-        <v>0.02504258938308457</v>
+        <v>0.05966152085894016</v>
       </c>
       <c r="F10">
-        <v>1.811804587760022</v>
+        <v>2.134180169307839</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.131369681199963</v>
+        <v>1.699437477044711</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.970464421001907</v>
+        <v>0.9189607810573648</v>
       </c>
       <c r="L10">
-        <v>0.2333054426589598</v>
+        <v>0.2371483412928512</v>
       </c>
       <c r="M10">
-        <v>0.3860573611463849</v>
+        <v>0.2671022574942512</v>
       </c>
       <c r="N10">
-        <v>1.554907100060873</v>
+        <v>2.985034759134209</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.020824756105299</v>
+        <v>1.117717361209827</v>
       </c>
       <c r="C11">
-        <v>0.2863961466574381</v>
+        <v>0.08486599471868317</v>
       </c>
       <c r="D11">
-        <v>0.06200195854318125</v>
+        <v>0.1151986118553889</v>
       </c>
       <c r="E11">
-        <v>0.02538965802962601</v>
+        <v>0.05960890761050486</v>
       </c>
       <c r="F11">
-        <v>1.894175914238005</v>
+        <v>2.148492139862356</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.164843028605745</v>
+        <v>1.70313648791651</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.119669149646796</v>
+        <v>0.955679273605341</v>
       </c>
       <c r="L11">
-        <v>0.2473406878520592</v>
+        <v>0.2399319355212555</v>
       </c>
       <c r="M11">
-        <v>0.4134170269737822</v>
+        <v>0.2733192051427977</v>
       </c>
       <c r="N11">
-        <v>1.537749848365607</v>
+        <v>2.976232028045231</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.073790596606102</v>
+        <v>1.130262590177949</v>
       </c>
       <c r="C12">
-        <v>0.2942680621945328</v>
+        <v>0.08700039087548816</v>
       </c>
       <c r="D12">
-        <v>0.06163933115076858</v>
+        <v>0.1151672997287871</v>
       </c>
       <c r="E12">
-        <v>0.02552497676111187</v>
+        <v>0.05959108145639469</v>
       </c>
       <c r="F12">
-        <v>1.925970129574168</v>
+        <v>2.154056945733188</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.177875595235406</v>
+        <v>1.704636515718391</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.176626443743629</v>
+        <v>0.969649570208901</v>
       </c>
       <c r="L12">
-        <v>0.2527169538443985</v>
+        <v>0.2410024752727509</v>
       </c>
       <c r="M12">
-        <v>0.4238697630095274</v>
+        <v>0.2756932812351991</v>
       </c>
       <c r="N12">
-        <v>1.531623253724305</v>
+        <v>2.973014223189196</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.062363807355609</v>
+        <v>1.127557202004255</v>
       </c>
       <c r="C13">
-        <v>0.2925695602926908</v>
+        <v>0.08654071450061451</v>
       </c>
       <c r="D13">
-        <v>0.06171745503973725</v>
+        <v>0.1151740483200321</v>
       </c>
       <c r="E13">
-        <v>0.02549565674383736</v>
+        <v>0.0595948274864071</v>
       </c>
       <c r="F13">
-        <v>1.919094919887499</v>
+        <v>2.152852006616115</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.175052396537026</v>
+        <v>1.704309041201441</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.164338358210955</v>
+        <v>0.9666378909716116</v>
       </c>
       <c r="L13">
-        <v>0.251556240910972</v>
+        <v>0.2407711840584597</v>
       </c>
       <c r="M13">
-        <v>0.4216142958609694</v>
+        <v>0.2751810991906964</v>
       </c>
       <c r="N13">
-        <v>1.532925831767272</v>
+        <v>2.973702091713491</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.025173515431561</v>
+        <v>1.118747865356681</v>
       </c>
       <c r="C14">
-        <v>0.2870423729049207</v>
+        <v>0.08504159471047501</v>
       </c>
       <c r="D14">
-        <v>0.06197213623981135</v>
+        <v>0.115196038021022</v>
       </c>
       <c r="E14">
-        <v>0.02540071149147138</v>
+        <v>0.05960739905446033</v>
       </c>
       <c r="F14">
-        <v>1.896779226767364</v>
+        <v>2.148947049589907</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.165907883294707</v>
+        <v>1.703257905911201</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.124345549013611</v>
+        <v>0.9568272997890404</v>
       </c>
       <c r="L14">
-        <v>0.2477817274983067</v>
+        <v>0.2400196798817831</v>
       </c>
       <c r="M14">
-        <v>0.4142750664687753</v>
+        <v>0.2735141241756764</v>
       </c>
       <c r="N14">
-        <v>1.537238235608655</v>
+        <v>2.975964979802967</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.002449967609778</v>
+        <v>1.113362286660674</v>
       </c>
       <c r="C15">
-        <v>0.2836658328039334</v>
+        <v>0.08412332734533834</v>
       </c>
       <c r="D15">
-        <v>0.06212806395610215</v>
+        <v>0.1152094928617871</v>
       </c>
       <c r="E15">
-        <v>0.02534306827582</v>
+        <v>0.05961537239891967</v>
       </c>
       <c r="F15">
-        <v>1.883190432613972</v>
+        <v>2.14657406018776</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.160354062953687</v>
+        <v>1.702626987181105</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.099910124147328</v>
+        <v>0.9508265974652943</v>
       </c>
       <c r="L15">
-        <v>0.2454779241278686</v>
+        <v>0.2395615037454775</v>
       </c>
       <c r="M15">
-        <v>0.4097919226315625</v>
+        <v>0.2724956380074914</v>
       </c>
       <c r="N15">
-        <v>1.539928724476425</v>
+        <v>2.977366122231459</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.873056873932995</v>
+        <v>1.082659181757407</v>
       </c>
       <c r="C16">
-        <v>0.2644466250188486</v>
+        <v>0.07886084364106694</v>
       </c>
       <c r="D16">
-        <v>0.06302065440882743</v>
+        <v>0.1152863774875073</v>
       </c>
       <c r="E16">
-        <v>0.02502044000847192</v>
+        <v>0.05966525319139926</v>
       </c>
       <c r="F16">
-        <v>1.80650238167425</v>
+        <v>2.13326515652048</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.129230305317236</v>
+        <v>1.699209630462676</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.960774105449417</v>
+        <v>0.916570351064621</v>
       </c>
       <c r="L16">
-        <v>0.2323964471021185</v>
+        <v>0.2369687306964465</v>
       </c>
       <c r="M16">
-        <v>0.3842816407848417</v>
+        <v>0.2666987458258561</v>
       </c>
       <c r="N16">
-        <v>1.556078820731273</v>
+        <v>2.985626207658015</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.794372822361652</v>
+        <v>1.06396628481798</v>
       </c>
       <c r="C17">
-        <v>0.2527643106721627</v>
+        <v>0.07563217656348797</v>
       </c>
       <c r="D17">
-        <v>0.06356750902156705</v>
+        <v>0.1153333503884717</v>
       </c>
       <c r="E17">
-        <v>0.02482921268676463</v>
+        <v>0.05969959773081168</v>
       </c>
       <c r="F17">
-        <v>1.760465146504046</v>
+        <v>2.12535901523799</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.11073841230963</v>
+        <v>1.697290004949025</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.876167148887248</v>
+        <v>0.8956724927278685</v>
       </c>
       <c r="L17">
-        <v>0.2244738971360505</v>
+        <v>0.2354074822761589</v>
       </c>
       <c r="M17">
-        <v>0.3687843732800289</v>
+        <v>0.263177947090611</v>
       </c>
       <c r="N17">
-        <v>1.566619270538155</v>
+        <v>2.990899261574455</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.749354569036399</v>
+        <v>1.053267045880403</v>
       </c>
       <c r="C18">
-        <v>0.246081489592811</v>
+        <v>0.07377499425182066</v>
       </c>
       <c r="D18">
-        <v>0.06388183653853119</v>
+        <v>0.1153602979770465</v>
       </c>
       <c r="E18">
-        <v>0.02472161590323108</v>
+        <v>0.05972073042495296</v>
       </c>
       <c r="F18">
-        <v>1.734337957613562</v>
+        <v>2.120906548548362</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.100313568798867</v>
+        <v>1.696250853091229</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.827759831056056</v>
+        <v>0.8836956949030821</v>
       </c>
       <c r="L18">
-        <v>0.2199527419209488</v>
+        <v>0.2345202823212986</v>
       </c>
       <c r="M18">
-        <v>0.3599233849940475</v>
+        <v>0.2611659026584263</v>
       </c>
       <c r="N18">
-        <v>1.572906681189295</v>
+        <v>2.994007758045754</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.734151653457019</v>
+        <v>1.049653477072326</v>
       </c>
       <c r="C19">
-        <v>0.2438247862870924</v>
+        <v>0.07314615792314783</v>
       </c>
       <c r="D19">
-        <v>0.06398823182715319</v>
+        <v>0.1153694100515708</v>
       </c>
       <c r="E19">
-        <v>0.02468559006898285</v>
+        <v>0.05972812261999838</v>
       </c>
       <c r="F19">
-        <v>1.725550547381189</v>
+        <v>2.119415321625326</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.096819266466191</v>
+        <v>1.695910171001046</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.811412260848698</v>
+        <v>0.8796479602122247</v>
       </c>
       <c r="L19">
-        <v>0.2184279030339553</v>
+        <v>0.2342217454879574</v>
       </c>
       <c r="M19">
-        <v>0.3569319337814463</v>
+        <v>0.260486897524622</v>
       </c>
       <c r="N19">
-        <v>1.575073392537035</v>
+        <v>2.995073217901989</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.802723803824904</v>
+        <v>1.065950751730981</v>
       </c>
       <c r="C20">
-        <v>0.2540040618962252</v>
+        <v>0.07597588740812</v>
       </c>
       <c r="D20">
-        <v>0.06350931827641837</v>
+        <v>0.1153283573103394</v>
       </c>
       <c r="E20">
-        <v>0.02484932008627094</v>
+        <v>0.05969579907263167</v>
       </c>
       <c r="F20">
-        <v>1.765329032079379</v>
+        <v>2.12619081100128</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.112684830284508</v>
+        <v>1.697487628358324</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.88514675964629</v>
+        <v>0.8978926452757889</v>
       </c>
       <c r="L20">
-        <v>0.225313528989517</v>
+        <v>0.2355725634293719</v>
       </c>
       <c r="M20">
-        <v>0.3704285620189935</v>
+        <v>0.2635513943133958</v>
       </c>
       <c r="N20">
-        <v>1.565473782742146</v>
+        <v>2.990330113303898</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.036085314725369</v>
+        <v>1.121333215257607</v>
       </c>
       <c r="C21">
-        <v>0.2886639423658437</v>
+        <v>0.08548192513481467</v>
       </c>
       <c r="D21">
-        <v>0.06189734549830028</v>
+        <v>0.1151895821371998</v>
       </c>
       <c r="E21">
-        <v>0.02542849179010176</v>
+        <v>0.05960364962331255</v>
       </c>
       <c r="F21">
-        <v>1.903317059222914</v>
+        <v>2.150090089173645</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.168583898526208</v>
+        <v>1.703563954741142</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.136079512877501</v>
+        <v>0.95970712272279</v>
       </c>
       <c r="L21">
-        <v>0.2488886737251903</v>
+        <v>0.2402399685592655</v>
       </c>
       <c r="M21">
-        <v>0.4164281825493603</v>
+        <v>0.2740032166853652</v>
       </c>
       <c r="N21">
-        <v>1.535961315792235</v>
+        <v>2.97529717638426</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.191087823002647</v>
+        <v>1.157994261249939</v>
       </c>
       <c r="C22">
-        <v>0.3117112770742096</v>
+        <v>0.09169400712809761</v>
       </c>
       <c r="D22">
-        <v>0.06084076311669584</v>
+        <v>0.1150982390493596</v>
       </c>
       <c r="E22">
-        <v>0.02582981007389051</v>
+        <v>0.05955564581917905</v>
       </c>
       <c r="F22">
-        <v>1.997039980552188</v>
+        <v>2.166555888893512</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.207214280167136</v>
+        <v>1.708113957990719</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.302772117121009</v>
+        <v>1.000489975969458</v>
       </c>
       <c r="L22">
-        <v>0.2646577449965406</v>
+        <v>0.2433862761353538</v>
       </c>
       <c r="M22">
-        <v>0.4470348618155811</v>
+        <v>0.2809497852380005</v>
       </c>
       <c r="N22">
-        <v>1.518845816404934</v>
+        <v>2.96614614020146</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.108114000835144</v>
+        <v>1.138385053603258</v>
       </c>
       <c r="C23">
-        <v>0.2993707486470214</v>
+        <v>0.08837853512977745</v>
       </c>
       <c r="D23">
-        <v>0.06140502104794443</v>
+        <v>0.1151470506888028</v>
       </c>
       <c r="E23">
-        <v>0.02561345678986804</v>
+        <v>0.05958015077753309</v>
       </c>
       <c r="F23">
-        <v>1.946673766661419</v>
+        <v>2.157690309387476</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.186393561605627</v>
+        <v>1.705632564911397</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.213537661199069</v>
+        <v>0.9786883197213854</v>
       </c>
       <c r="L23">
-        <v>0.2562062064306474</v>
+        <v>0.241698267635897</v>
       </c>
       <c r="M23">
-        <v>0.4306459787470018</v>
+        <v>0.2772316986358518</v>
       </c>
       <c r="N23">
-        <v>1.527773145056983</v>
+        <v>2.970968519723371</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.79894764916483</v>
+        <v>1.065053426090145</v>
       </c>
       <c r="C24">
-        <v>0.253443466778549</v>
+        <v>0.07582049879215447</v>
       </c>
       <c r="D24">
-        <v>0.06353562650614641</v>
+        <v>0.1153306148590598</v>
       </c>
       <c r="E24">
-        <v>0.02484022225107818</v>
+        <v>0.0596975121235932</v>
       </c>
       <c r="F24">
-        <v>1.76312901399578</v>
+        <v>2.125814466821254</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.111804214174221</v>
+        <v>1.697398081998145</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.881086352083287</v>
+        <v>0.89688879700347</v>
       </c>
       <c r="L24">
-        <v>0.22493382716452</v>
+        <v>0.2354978978984263</v>
       </c>
       <c r="M24">
-        <v>0.3696850737214064</v>
+        <v>0.2633825211007021</v>
       </c>
       <c r="N24">
-        <v>1.565990950787594</v>
+        <v>2.990587185536029</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.474415601059064</v>
+        <v>0.9879580745888461</v>
       </c>
       <c r="C25">
-        <v>0.2052675161997257</v>
+        <v>0.06226894508672842</v>
       </c>
       <c r="D25">
-        <v>0.06582651588136912</v>
+        <v>0.1155259586163737</v>
       </c>
       <c r="E25">
-        <v>0.02409689895772527</v>
+        <v>0.05987684571733176</v>
       </c>
       <c r="F25">
-        <v>1.578419515515037</v>
+        <v>2.09506016370328</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.039319173109249</v>
+        <v>1.690999427525348</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.532089013169781</v>
+        <v>0.8103022901492238</v>
       </c>
       <c r="L25">
-        <v>0.1925448377970866</v>
+        <v>0.2292223546112098</v>
       </c>
       <c r="M25">
-        <v>0.3059051845248604</v>
+        <v>0.2489420619134535</v>
       </c>
       <c r="N25">
-        <v>1.615730059845504</v>
+        <v>3.014638037130226</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_148/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_148/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9329097690169021</v>
+        <v>1.241400140809418</v>
       </c>
       <c r="C2">
-        <v>0.05228061303763809</v>
+        <v>0.17063430767341</v>
       </c>
       <c r="D2">
-        <v>0.1156676683935771</v>
+        <v>0.06751359442651506</v>
       </c>
       <c r="E2">
-        <v>0.06005454773048058</v>
+        <v>0.02362038044004588</v>
       </c>
       <c r="F2">
-        <v>2.075524740652568</v>
+        <v>1.451896072162839</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>1.68842009516662</v>
+        <v>0.9917696804985425</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7479508682361029</v>
+        <v>1.281387157763021</v>
       </c>
       <c r="L2">
-        <v>0.2249561431626361</v>
+        <v>0.1696397758515289</v>
       </c>
       <c r="M2">
-        <v>0.2387367315177329</v>
+        <v>0.2602798259418648</v>
       </c>
       <c r="N2">
-        <v>3.034829201778066</v>
+        <v>1.658880940108816</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8966713425653268</v>
+        <v>1.086402342336271</v>
       </c>
       <c r="C3">
-        <v>0.04550233385545255</v>
+        <v>0.1475387074667509</v>
       </c>
       <c r="D3">
-        <v>0.1157624700085336</v>
+        <v>0.06866030321724281</v>
       </c>
       <c r="E3">
-        <v>0.06020361776108896</v>
+        <v>0.02333836911224196</v>
       </c>
       <c r="F3">
-        <v>2.064219328938819</v>
+        <v>1.371201180165528</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.688000342013574</v>
+        <v>0.9627165563099354</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7065628561795734</v>
+        <v>1.114505258099967</v>
       </c>
       <c r="L3">
-        <v>0.2222859337751899</v>
+        <v>0.1546101678689453</v>
       </c>
       <c r="M3">
-        <v>0.2320865127833471</v>
+        <v>0.2300301833568987</v>
       </c>
       <c r="N3">
-        <v>3.050060697382932</v>
+        <v>1.691845468776663</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.874947644033341</v>
+        <v>0.9924387309711733</v>
       </c>
       <c r="C4">
-        <v>0.04133518365776467</v>
+        <v>0.1334993851321826</v>
       </c>
       <c r="D4">
-        <v>0.1158200975665817</v>
+        <v>0.06936705188922154</v>
       </c>
       <c r="E4">
-        <v>0.06030932923153909</v>
+        <v>0.02318443594357067</v>
       </c>
       <c r="F4">
-        <v>2.058230358761719</v>
+        <v>1.323887958769532</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.688397463660699</v>
+        <v>0.9463045822130951</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6815773114576871</v>
+        <v>1.013264877800964</v>
       </c>
       <c r="L4">
-        <v>0.2207555003845627</v>
+        <v>0.1455968728904864</v>
       </c>
       <c r="M4">
-        <v>0.22813448093018</v>
+        <v>0.2117393619757308</v>
       </c>
       <c r="N4">
-        <v>3.060176053919939</v>
+        <v>1.713815788181876</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8662277516443737</v>
+        <v>0.9544191041822785</v>
       </c>
       <c r="C5">
-        <v>0.03963563088288424</v>
+        <v>0.1278078472481781</v>
       </c>
       <c r="D5">
-        <v>0.1158434391272163</v>
+        <v>0.06965587000574125</v>
       </c>
       <c r="E5">
-        <v>0.06035598249805219</v>
+        <v>0.02312640864082649</v>
       </c>
       <c r="F5">
-        <v>2.056029287262106</v>
+        <v>1.305133697445243</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.68872397326848</v>
+        <v>0.9399563745445434</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6715028810065462</v>
+        <v>0.9722808266232619</v>
       </c>
       <c r="L5">
-        <v>0.2201592984918292</v>
+        <v>0.1419740442878776</v>
       </c>
       <c r="M5">
-        <v>0.2265570411517075</v>
+        <v>0.2043501582552061</v>
       </c>
       <c r="N5">
-        <v>3.064489997482482</v>
+        <v>1.7231892103676</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8647878407414851</v>
+        <v>0.9481214661094839</v>
       </c>
       <c r="C6">
-        <v>0.03935333415734021</v>
+        <v>0.1268643921971773</v>
       </c>
       <c r="D6">
-        <v>0.1158473065081118</v>
+        <v>0.06970388120088522</v>
       </c>
       <c r="E6">
-        <v>0.06036394541818435</v>
+        <v>0.02311705351657611</v>
       </c>
       <c r="F6">
-        <v>2.055678263633098</v>
+        <v>1.302050356469309</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.688788136566615</v>
+        <v>0.9389222504458345</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6698365165326834</v>
+        <v>0.9654908877561184</v>
       </c>
       <c r="L6">
-        <v>0.2200619592099997</v>
+        <v>0.1413753967869482</v>
       </c>
       <c r="M6">
-        <v>0.226297105726907</v>
+        <v>0.2031268941083404</v>
       </c>
       <c r="N6">
-        <v>3.065217910657928</v>
+        <v>1.724770636038826</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.874829506970201</v>
+        <v>0.9919249271644617</v>
       </c>
       <c r="C7">
-        <v>0.04131226869280624</v>
+        <v>0.1334225148267905</v>
       </c>
       <c r="D7">
-        <v>0.1158204129297662</v>
+        <v>0.06937094351642159</v>
       </c>
       <c r="E7">
-        <v>0.06030994392691191</v>
+        <v>0.02318363449855809</v>
       </c>
       <c r="F7">
-        <v>2.058199704766224</v>
+        <v>1.32363294668923</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.68840120029315</v>
+        <v>0.9462176164210945</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6814410093192009</v>
+        <v>1.012711096286125</v>
       </c>
       <c r="L7">
-        <v>0.2207473485614742</v>
+        <v>0.1455478160207591</v>
       </c>
       <c r="M7">
-        <v>0.2281130731641881</v>
+        <v>0.2116394560505626</v>
       </c>
       <c r="N7">
-        <v>3.060233456538818</v>
+        <v>1.713940518200239</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9203055264001421</v>
+        <v>1.187686819497202</v>
       </c>
       <c r="C8">
-        <v>0.04994450224798186</v>
+        <v>0.1626378578209966</v>
       </c>
       <c r="D8">
-        <v>0.115700478945536</v>
+        <v>0.06790851319958335</v>
       </c>
       <c r="E8">
-        <v>0.06010300888559517</v>
+        <v>0.0235190710348423</v>
       </c>
       <c r="F8">
-        <v>2.071428879898477</v>
+        <v>1.42358681211492</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.688139452461634</v>
+        <v>0.9814442440438143</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7335916972909899</v>
+        <v>1.223569440257876</v>
       </c>
       <c r="L8">
-        <v>0.2240128316294587</v>
+        <v>0.1644105375855744</v>
       </c>
       <c r="M8">
-        <v>0.23641652452228</v>
+        <v>0.2497869891208744</v>
       </c>
       <c r="N8">
-        <v>3.039922598852954</v>
+        <v>1.66987893016038</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.013660706942687</v>
+        <v>1.582701553600288</v>
       </c>
       <c r="C9">
-        <v>0.06683506623973301</v>
+        <v>0.2213444268205791</v>
       </c>
       <c r="D9">
-        <v>0.1154604974818447</v>
+        <v>0.0650552094935648</v>
       </c>
       <c r="E9">
-        <v>0.05980936469561016</v>
+        <v>0.02433583559944186</v>
       </c>
       <c r="F9">
-        <v>2.104936121109773</v>
+        <v>1.639044986016771</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.692823406491279</v>
+        <v>1.06276650414609</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8392504305352304</v>
+        <v>1.648550737671627</v>
       </c>
       <c r="L9">
-        <v>0.231281207882617</v>
+        <v>0.2032952622925421</v>
       </c>
       <c r="M9">
-        <v>0.2537399399285576</v>
+        <v>0.327159146823135</v>
       </c>
       <c r="N9">
-        <v>3.006150687704647</v>
+        <v>1.597911300151239</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.084799269778784</v>
+        <v>1.88206879613972</v>
       </c>
       <c r="C10">
-        <v>0.07922924020277833</v>
+        <v>0.2657848353324397</v>
       </c>
       <c r="D10">
-        <v>0.115281007993433</v>
+        <v>0.06295822216075564</v>
       </c>
       <c r="E10">
-        <v>0.05966152085894016</v>
+        <v>0.02504258938312542</v>
       </c>
       <c r="F10">
-        <v>2.134180169307839</v>
+        <v>1.811804587760022</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.699437477044711</v>
+        <v>1.131369681199971</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9189607810573648</v>
+        <v>1.970464421001935</v>
       </c>
       <c r="L10">
-        <v>0.2371483412928512</v>
+        <v>0.2333054426589598</v>
       </c>
       <c r="M10">
-        <v>0.2671022574942512</v>
+        <v>0.3860573611464133</v>
       </c>
       <c r="N10">
-        <v>2.985034759134209</v>
+        <v>1.554907100060873</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.117717361209827</v>
+        <v>2.020824756105412</v>
       </c>
       <c r="C11">
-        <v>0.08486599471868317</v>
+        <v>0.2863961466575233</v>
       </c>
       <c r="D11">
-        <v>0.1151986118553889</v>
+        <v>0.06200195854319013</v>
       </c>
       <c r="E11">
-        <v>0.05960890761050486</v>
+        <v>0.02538965802964199</v>
       </c>
       <c r="F11">
-        <v>2.148492139862356</v>
+        <v>1.894175914238005</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.70313648791651</v>
+        <v>1.164843028605745</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.955679273605341</v>
+        <v>2.119669149646825</v>
       </c>
       <c r="L11">
-        <v>0.2399319355212555</v>
+        <v>0.247340687852116</v>
       </c>
       <c r="M11">
-        <v>0.2733192051427977</v>
+        <v>0.4134170269738107</v>
       </c>
       <c r="N11">
-        <v>2.976232028045231</v>
+        <v>1.537749848365578</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.130262590177949</v>
+        <v>2.073790596606102</v>
       </c>
       <c r="C12">
-        <v>0.08700039087548816</v>
+        <v>0.2942680621945613</v>
       </c>
       <c r="D12">
-        <v>0.1151672997287871</v>
+        <v>0.06163933115088582</v>
       </c>
       <c r="E12">
-        <v>0.05959108145639469</v>
+        <v>0.025524976761087</v>
       </c>
       <c r="F12">
-        <v>2.154056945733188</v>
+        <v>1.925970129574168</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>1.704636515718391</v>
+        <v>1.177875595235406</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.969649570208901</v>
+        <v>2.176626443743686</v>
       </c>
       <c r="L12">
-        <v>0.2410024752727509</v>
+        <v>0.2527169538444554</v>
       </c>
       <c r="M12">
-        <v>0.2756932812351991</v>
+        <v>0.4238697630095132</v>
       </c>
       <c r="N12">
-        <v>2.973014223189196</v>
+        <v>1.531623253724348</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.127557202004255</v>
+        <v>2.062363807355553</v>
       </c>
       <c r="C13">
-        <v>0.08654071450061451</v>
+        <v>0.2925695602923497</v>
       </c>
       <c r="D13">
-        <v>0.1151740483200321</v>
+        <v>0.06171745503974257</v>
       </c>
       <c r="E13">
-        <v>0.0595948274864071</v>
+        <v>0.02549565674383736</v>
       </c>
       <c r="F13">
-        <v>2.152852006616115</v>
+        <v>1.91909491988747</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.704309041201441</v>
+        <v>1.175052396537041</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9666378909716116</v>
+        <v>2.164338358210983</v>
       </c>
       <c r="L13">
-        <v>0.2407711840584597</v>
+        <v>0.2515562409109151</v>
       </c>
       <c r="M13">
-        <v>0.2751810991906964</v>
+        <v>0.4216142958609552</v>
       </c>
       <c r="N13">
-        <v>2.973702091713491</v>
+        <v>1.532925831767201</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.118747865356681</v>
+        <v>2.025173515431561</v>
       </c>
       <c r="C14">
-        <v>0.08504159471047501</v>
+        <v>0.2870423729046934</v>
       </c>
       <c r="D14">
-        <v>0.115196038021022</v>
+        <v>0.06197213623972253</v>
       </c>
       <c r="E14">
-        <v>0.05960739905446033</v>
+        <v>0.02540071149147138</v>
       </c>
       <c r="F14">
-        <v>2.148947049589907</v>
+        <v>1.89677922676735</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.703257905911201</v>
+        <v>1.165907883294707</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9568272997890404</v>
+        <v>2.124345549013526</v>
       </c>
       <c r="L14">
-        <v>0.2400196798817831</v>
+        <v>0.2477817274984204</v>
       </c>
       <c r="M14">
-        <v>0.2735141241756764</v>
+        <v>0.4142750664687824</v>
       </c>
       <c r="N14">
-        <v>2.975964979802967</v>
+        <v>1.537238235608655</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.113362286660674</v>
+        <v>2.002449967609834</v>
       </c>
       <c r="C15">
-        <v>0.08412332734533834</v>
+        <v>0.2836658328036776</v>
       </c>
       <c r="D15">
-        <v>0.1152094928617871</v>
+        <v>0.0621280639559032</v>
       </c>
       <c r="E15">
-        <v>0.05961537239891967</v>
+        <v>0.02534306827582355</v>
       </c>
       <c r="F15">
-        <v>2.14657406018776</v>
+        <v>1.883190432613972</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.702626987181105</v>
+        <v>1.160354062953687</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9508265974652943</v>
+        <v>2.099910124147328</v>
       </c>
       <c r="L15">
-        <v>0.2395615037454775</v>
+        <v>0.245477924127897</v>
       </c>
       <c r="M15">
-        <v>0.2724956380074914</v>
+        <v>0.4097919226315625</v>
       </c>
       <c r="N15">
-        <v>2.977366122231459</v>
+        <v>1.539928724476468</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.082659181757407</v>
+        <v>1.873056873933081</v>
       </c>
       <c r="C16">
-        <v>0.07886084364106694</v>
+        <v>0.2644466250189055</v>
       </c>
       <c r="D16">
-        <v>0.1152863774875073</v>
+        <v>0.06302065440906013</v>
       </c>
       <c r="E16">
-        <v>0.05966525319139926</v>
+        <v>0.02502044000847015</v>
       </c>
       <c r="F16">
-        <v>2.13326515652048</v>
+        <v>1.80650238167425</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.699209630462676</v>
+        <v>1.129230305317257</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.916570351064621</v>
+        <v>1.960774105449417</v>
       </c>
       <c r="L16">
-        <v>0.2369687306964465</v>
+        <v>0.2323964471021185</v>
       </c>
       <c r="M16">
-        <v>0.2666987458258561</v>
+        <v>0.3842816407848488</v>
       </c>
       <c r="N16">
-        <v>2.985626207658015</v>
+        <v>1.556078820731258</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.06396628481798</v>
+        <v>1.794372822361765</v>
       </c>
       <c r="C17">
-        <v>0.07563217656348797</v>
+        <v>0.2527643106721342</v>
       </c>
       <c r="D17">
-        <v>0.1153333503884717</v>
+        <v>0.06356750902168251</v>
       </c>
       <c r="E17">
-        <v>0.05969959773081168</v>
+        <v>0.02482921268681348</v>
       </c>
       <c r="F17">
-        <v>2.12535901523799</v>
+        <v>1.76046514650406</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.697290004949025</v>
+        <v>1.110738412309658</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8956724927278685</v>
+        <v>1.876167148887248</v>
       </c>
       <c r="L17">
-        <v>0.2354074822761589</v>
+        <v>0.2244738971362068</v>
       </c>
       <c r="M17">
-        <v>0.263177947090611</v>
+        <v>0.368784373280036</v>
       </c>
       <c r="N17">
-        <v>2.990899261574455</v>
+        <v>1.566619270538169</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.053267045880403</v>
+        <v>1.749354569036399</v>
       </c>
       <c r="C18">
-        <v>0.07377499425182066</v>
+        <v>0.2460814895931094</v>
       </c>
       <c r="D18">
-        <v>0.1153602979770465</v>
+        <v>0.06388183653832158</v>
       </c>
       <c r="E18">
-        <v>0.05972073042495296</v>
+        <v>0.02472161590324351</v>
       </c>
       <c r="F18">
-        <v>2.120906548548362</v>
+        <v>1.734337957613562</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.696250853091229</v>
+        <v>1.100313568798846</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8836956949030821</v>
+        <v>1.827759831056028</v>
       </c>
       <c r="L18">
-        <v>0.2345202823212986</v>
+        <v>0.2199527419209915</v>
       </c>
       <c r="M18">
-        <v>0.2611659026584263</v>
+        <v>0.3599233849940546</v>
       </c>
       <c r="N18">
-        <v>2.994007758045754</v>
+        <v>1.572906681189224</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049653477072326</v>
+        <v>1.734151653457076</v>
       </c>
       <c r="C19">
-        <v>0.07314615792314783</v>
+        <v>0.2438247862872487</v>
       </c>
       <c r="D19">
-        <v>0.1153694100515708</v>
+        <v>0.06398823182705549</v>
       </c>
       <c r="E19">
-        <v>0.05972812261999838</v>
+        <v>0.02468559006896509</v>
       </c>
       <c r="F19">
-        <v>2.119415321625326</v>
+        <v>1.725550547381204</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.695910171001046</v>
+        <v>1.096819266466206</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8796479602122247</v>
+        <v>1.811412260848584</v>
       </c>
       <c r="L19">
-        <v>0.2342217454879574</v>
+        <v>0.2184279030339269</v>
       </c>
       <c r="M19">
-        <v>0.260486897524622</v>
+        <v>0.3569319337814321</v>
       </c>
       <c r="N19">
-        <v>2.995073217901989</v>
+        <v>1.575073392537078</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.065950751730981</v>
+        <v>1.802723803824847</v>
       </c>
       <c r="C20">
-        <v>0.07597588740812</v>
+        <v>0.2540040618961399</v>
       </c>
       <c r="D20">
-        <v>0.1153283573103394</v>
+        <v>0.06350931827631179</v>
       </c>
       <c r="E20">
-        <v>0.05969579907263167</v>
+        <v>0.02484932008630913</v>
       </c>
       <c r="F20">
-        <v>2.12619081100128</v>
+        <v>1.765329032079393</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.697487628358324</v>
+        <v>1.112684830284508</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8978926452757889</v>
+        <v>1.885146759646346</v>
       </c>
       <c r="L20">
-        <v>0.2355725634293719</v>
+        <v>0.2253135289895596</v>
       </c>
       <c r="M20">
-        <v>0.2635513943133958</v>
+        <v>0.3704285620189935</v>
       </c>
       <c r="N20">
-        <v>2.990330113303898</v>
+        <v>1.565473782742103</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.121333215257607</v>
+        <v>2.036085314725369</v>
       </c>
       <c r="C21">
-        <v>0.08548192513481467</v>
+        <v>0.2886639423656163</v>
       </c>
       <c r="D21">
-        <v>0.1151895821371998</v>
+        <v>0.06189734549817949</v>
       </c>
       <c r="E21">
-        <v>0.05960364962331255</v>
+        <v>0.02542849179011597</v>
       </c>
       <c r="F21">
-        <v>2.150090089173645</v>
+        <v>1.9033170592229</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.703563954741142</v>
+        <v>1.168583898526222</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.95970712272279</v>
+        <v>2.136079512877501</v>
       </c>
       <c r="L21">
-        <v>0.2402399685592655</v>
+        <v>0.2488886737252045</v>
       </c>
       <c r="M21">
-        <v>0.2740032166853652</v>
+        <v>0.4164281825493887</v>
       </c>
       <c r="N21">
-        <v>2.97529717638426</v>
+        <v>1.535961315792235</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.157994261249939</v>
+        <v>2.191087823002761</v>
       </c>
       <c r="C22">
-        <v>0.09169400712809761</v>
+        <v>0.3117112770746076</v>
       </c>
       <c r="D22">
-        <v>0.1150982390493596</v>
+        <v>0.06084076311678999</v>
       </c>
       <c r="E22">
-        <v>0.05955564581917905</v>
+        <v>0.02582981007388341</v>
       </c>
       <c r="F22">
-        <v>2.166555888893512</v>
+        <v>1.997039980552188</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.708113957990719</v>
+        <v>1.20721428016715</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.000489975969458</v>
+        <v>2.302772117121123</v>
       </c>
       <c r="L22">
-        <v>0.2433862761353538</v>
+        <v>0.2646577449965548</v>
       </c>
       <c r="M22">
-        <v>0.2809497852380005</v>
+        <v>0.4470348618155882</v>
       </c>
       <c r="N22">
-        <v>2.96614614020146</v>
+        <v>1.518845816404991</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.138385053603258</v>
+        <v>2.10811400083503</v>
       </c>
       <c r="C23">
-        <v>0.08837853512977745</v>
+        <v>0.2993707486468224</v>
       </c>
       <c r="D23">
-        <v>0.1151470506888028</v>
+        <v>0.0614050210479391</v>
       </c>
       <c r="E23">
-        <v>0.05958015077753309</v>
+        <v>0.02561345678988225</v>
       </c>
       <c r="F23">
-        <v>2.157690309387476</v>
+        <v>1.946673766661391</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.705632564911397</v>
+        <v>1.186393561605641</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9786883197213854</v>
+        <v>2.213537661198927</v>
       </c>
       <c r="L23">
-        <v>0.241698267635897</v>
+        <v>0.2562062064306332</v>
       </c>
       <c r="M23">
-        <v>0.2772316986358518</v>
+        <v>0.430645978747016</v>
       </c>
       <c r="N23">
-        <v>2.970968519723371</v>
+        <v>1.527773145056912</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.065053426090145</v>
+        <v>1.798947649164802</v>
       </c>
       <c r="C24">
-        <v>0.07582049879215447</v>
+        <v>0.2534434667784069</v>
       </c>
       <c r="D24">
-        <v>0.1153306148590598</v>
+        <v>0.06353562650605049</v>
       </c>
       <c r="E24">
-        <v>0.0596975121235932</v>
+        <v>0.02484022225110394</v>
       </c>
       <c r="F24">
-        <v>2.125814466821254</v>
+        <v>1.763129013995794</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.697398081998145</v>
+        <v>1.111804214174221</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.89688879700347</v>
+        <v>1.881086352083315</v>
       </c>
       <c r="L24">
-        <v>0.2354978978984263</v>
+        <v>0.2249338271645058</v>
       </c>
       <c r="M24">
-        <v>0.2633825211007021</v>
+        <v>0.3696850737214206</v>
       </c>
       <c r="N24">
-        <v>2.990587185536029</v>
+        <v>1.565990950787594</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9879580745888461</v>
+        <v>1.47441560105915</v>
       </c>
       <c r="C25">
-        <v>0.06226894508672842</v>
+        <v>0.205267516199612</v>
       </c>
       <c r="D25">
-        <v>0.1155259586163737</v>
+        <v>0.0658265158814455</v>
       </c>
       <c r="E25">
-        <v>0.05987684571733176</v>
+        <v>0.02409689895771194</v>
       </c>
       <c r="F25">
-        <v>2.09506016370328</v>
+        <v>1.578419515515037</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.690999427525348</v>
+        <v>1.039319173109227</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8103022901492238</v>
+        <v>1.532089013169724</v>
       </c>
       <c r="L25">
-        <v>0.2292223546112098</v>
+        <v>0.1925448377970298</v>
       </c>
       <c r="M25">
-        <v>0.2489420619134535</v>
+        <v>0.3059051845248248</v>
       </c>
       <c r="N25">
-        <v>3.014638037130226</v>
+        <v>1.615730059845504</v>
       </c>
       <c r="O25">
         <v>0</v>
